--- a/Consultant_Active_Reports/Active_Candidates_Samson_Abodunrin.xlsx
+++ b/Consultant_Active_Reports/Active_Candidates_Samson_Abodunrin.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1050,38 +1050,66 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>CV Sent</t>
+          <t>1st Interview</t>
         </is>
       </c>
       <c r="F22" s="2" t="n">
-        <v>45987</v>
+        <v>45991</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
+        <v>820</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Silverfort</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Nordics RSM</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Marc Solis</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>1st Interview</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="n">
+        <v>45991</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
         <v>833</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B24" t="inlineStr">
         <is>
           <t>Blockaid</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>SDR Manager</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>Tae Kim</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>CV Sent</t>
         </is>
       </c>
-      <c r="F23" s="2" t="n">
+      <c r="F24" s="2" t="n">
         <v>45987</v>
       </c>
     </row>

--- a/Consultant_Active_Reports/Active_Candidates_Samson_Abodunrin.xlsx
+++ b/Consultant_Active_Reports/Active_Candidates_Samson_Abodunrin.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -527,21 +527,21 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Antithesis</t>
+          <t>Safe Security</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BDR</t>
+          <t>Enterprise AE UK</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>J. Donahoe</t>
+          <t>Iain Airey</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -550,35 +550,35 @@
         </is>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45989</v>
+        <v>45975</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Antithesis</t>
+          <t>Safe Security</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BDR</t>
+          <t>Enterprise AE UK</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Omar Mohamed</t>
+          <t>Connor Newby</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2nd Interview</t>
+          <t>4th Interview</t>
         </is>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45989</v>
+        <v>45968</v>
       </c>
     </row>
     <row r="6">
@@ -611,49 +611,49 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>680</v>
+        <v>667</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Oscilar</t>
+          <t>Antithesis</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Sales Engineer</t>
+          <t>BDR</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Andrew Barnett</t>
+          <t>J. Donahoe</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2nd Interview</t>
+          <t>3rd Interview</t>
         </is>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45984</v>
+        <v>45989</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>680</v>
+        <v>667</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Oscilar</t>
+          <t>Antithesis</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Sales Engineer</t>
+          <t>BDR</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>JOHN FROST</t>
+          <t>Omar Mohamed</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Jonathan Valand</t>
+          <t>Kyle Martinez</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -690,7 +690,7 @@
         </is>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45989</v>
+        <v>45987</v>
       </c>
     </row>
     <row r="10">
@@ -709,7 +709,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Kyle Martinez</t>
+          <t>JOHN FROST</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -718,40 +718,40 @@
         </is>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45987</v>
+        <v>45989</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>704</v>
+        <v>680</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Dash0</t>
+          <t>Oscilar</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>SDR Leader NYC</t>
+          <t>Sales Engineer</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Michael Vargas</t>
+          <t>Andrew Barnett</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>CV Sent</t>
+          <t>2nd Interview</t>
         </is>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45965</v>
+        <v>45984</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>731</v>
+        <v>680</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -760,40 +760,40 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Enterprise AE x5</t>
+          <t>Sales Engineer</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Jason Fulwood</t>
+          <t>Jonathan Valand</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4th Interview</t>
+          <t>2nd Interview</t>
         </is>
       </c>
       <c r="F12" s="2" t="n">
-        <v>45984</v>
+        <v>45989</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>739</v>
+        <v>704</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Axion Ray</t>
+          <t>Dash0</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>BDR Manager (North East)</t>
+          <t>SDR Leader NYC</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Tae Kim</t>
+          <t>Michael Vargas</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -802,54 +802,54 @@
         </is>
       </c>
       <c r="F13" s="2" t="n">
-        <v>45987</v>
+        <v>45965</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>744</v>
+        <v>731</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Synthflow AI</t>
+          <t>Oscilar</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Sales Engineers</t>
+          <t>Enterprise AE x5</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>RICARDO DE BIASE</t>
+          <t>Jason Fulwood</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2nd Interview</t>
+          <t>4th Interview</t>
         </is>
       </c>
       <c r="F14" s="2" t="n">
-        <v>45982</v>
+        <v>45984</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Synthflow AI</t>
+          <t>Axion Ray</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Sales Engineers</t>
+          <t>BDR Manager (North East)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Nathan Watson</t>
+          <t>Tae Kim</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -858,31 +858,31 @@
         </is>
       </c>
       <c r="F15" s="2" t="n">
-        <v>45980</v>
+        <v>45987</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Synthflow AI</t>
+          <t>Axion Ray</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Sales Engineers</t>
+          <t>BDR Manager (North East)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Kenneth Winfield</t>
+          <t>Matt Henry</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>CV Sent</t>
+          <t>4th Interview</t>
         </is>
       </c>
       <c r="F16" s="2" t="n">
@@ -891,82 +891,82 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>760</v>
+        <v>744</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Impala</t>
+          <t>Synthflow AI</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Head of Sales (NA)</t>
+          <t>Sales Engineers</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Patrick Racy</t>
+          <t>Nathan Watson</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>3rd Interview</t>
+          <t>CV Sent</t>
         </is>
       </c>
       <c r="F17" s="2" t="n">
-        <v>45989</v>
+        <v>45980</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>807</v>
+        <v>744</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Oscilar</t>
+          <t>Synthflow AI</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>SE Leader</t>
+          <t>Sales Engineers</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Ray Mi</t>
+          <t>Kenneth Winfield</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3rd Interview</t>
+          <t>CV Sent</t>
         </is>
       </c>
       <c r="F18" s="2" t="n">
-        <v>45982</v>
+        <v>45980</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>807</v>
+        <v>744</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Oscilar</t>
+          <t>Synthflow AI</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>SE Leader</t>
+          <t>Sales Engineers</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Craig Fetterman</t>
+          <t>RICARDO DE BIASE</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1st Interview</t>
+          <t>2nd Interview</t>
         </is>
       </c>
       <c r="F19" s="2" t="n">
@@ -975,30 +975,30 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>807</v>
+        <v>760</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Oscilar</t>
+          <t>Impala</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>SE Leader</t>
+          <t>Head of Sales (NA)</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Andrew Birnbaum</t>
+          <t>Patrick Racy</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1st Interview</t>
+          <t>3rd Interview</t>
         </is>
       </c>
       <c r="F20" s="2" t="n">
-        <v>45982</v>
+        <v>45989</v>
       </c>
     </row>
     <row r="21">
@@ -1017,7 +1017,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>David Hoenig</t>
+          <t>Andrew Birnbaum</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1026,26 +1026,26 @@
         </is>
       </c>
       <c r="F21" s="2" t="n">
-        <v>45987</v>
+        <v>45982</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>820</v>
+        <v>807</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Silverfort</t>
+          <t>Oscilar</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Nordics RSM</t>
+          <t>SE Leader</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Jesper Damm-Skogh</t>
+          <t>Craig Fetterman</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1054,26 +1054,26 @@
         </is>
       </c>
       <c r="F22" s="2" t="n">
-        <v>45991</v>
+        <v>45982</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>820</v>
+        <v>807</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Silverfort</t>
+          <t>Oscilar</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Nordics RSM</t>
+          <t>SE Leader</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Marc Solis</t>
+          <t>David Hoenig</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1082,34 +1082,118 @@
         </is>
       </c>
       <c r="F23" s="2" t="n">
-        <v>45991</v>
+        <v>45987</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
+        <v>807</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Oscilar</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>SE Leader</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Ray Mi</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>3rd Interview</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="n">
+        <v>45982</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>820</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Silverfort</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Nordics RSM</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Jesper Damm-Skogh</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>1st Interview</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="n">
+        <v>45991</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>820</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Silverfort</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Nordics RSM</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Marc Solis</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>1st Interview</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="n">
+        <v>45991</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
         <v>833</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B27" t="inlineStr">
         <is>
           <t>Blockaid</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>SDR Manager</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>Tae Kim</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>CV Sent</t>
         </is>
       </c>
-      <c r="F24" s="2" t="n">
+      <c r="F27" s="2" t="n">
         <v>45987</v>
       </c>
     </row>

--- a/Consultant_Active_Reports/Active_Candidates_Samson_Abodunrin.xlsx
+++ b/Consultant_Active_Reports/Active_Candidates_Samson_Abodunrin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,12 +501,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Edward Aballa</t>
+          <t>Douglas Hopkins</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CV Sent</t>
+          <t>1st Interview</t>
         </is>
       </c>
     </row>
@@ -526,18 +526,18 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Ryan Lallier</t>
+          <t>Edward Aballa</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3rd Interview</t>
+          <t>CV Sent</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>594</v>
+        <v>667</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -546,17 +546,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Enterprise Account Executive</t>
+          <t>BDR</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Scott Murphy</t>
+          <t>Brannon Olive</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4th Interview</t>
+          <t>CV Sent</t>
         </is>
       </c>
     </row>
@@ -576,12 +576,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Brannon Olive</t>
+          <t>Bromley German</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>CV Sent</t>
+          <t>2nd Interview</t>
         </is>
       </c>
     </row>
@@ -601,12 +601,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Bromley German</t>
+          <t>Eray Yaman</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2nd Interview</t>
+          <t>1st Interview</t>
         </is>
       </c>
     </row>
@@ -626,12 +626,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Eray Yaman</t>
+          <t>J. Donahoe</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1st Interview</t>
+          <t>4th Interview</t>
         </is>
       </c>
     </row>
@@ -651,7 +651,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>J. Donahoe</t>
+          <t>Ryan Lewis</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -662,32 +662,32 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>667</v>
+        <v>680</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Antithesis</t>
+          <t>Oscilar</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>BDR</t>
+          <t>Sales Engineer</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Ryan Lewis</t>
+          <t>JOHN FROST</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2nd Interview</t>
+          <t>4th Interview</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>680</v>
+        <v>731</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -696,23 +696,23 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Sales Engineer</t>
+          <t>Enterprise AE x5</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>AMY REYES</t>
+          <t>Daniel Grasso</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1st Interview</t>
+          <t>3rd Interview</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>680</v>
+        <v>731</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -721,23 +721,23 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Sales Engineer</t>
+          <t>Enterprise AE x5</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>JOHN FROST</t>
+          <t>Rob Owen</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4th Interview</t>
+          <t>3rd Interview</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>680</v>
+        <v>731</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -746,37 +746,37 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Sales Engineer</t>
+          <t>Enterprise AE x5</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Madhura Nandakumar</t>
+          <t>WILLIAM WOLLISON</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>3rd Interview</t>
+          <t>2nd Interview</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>731</v>
+        <v>744</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Oscilar</t>
+          <t>Synthflow AI</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Enterprise AE x5</t>
+          <t>Sales Engineers</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Rob Owen</t>
+          <t>Steffen Kaiser</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -787,21 +787,21 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>731</v>
+        <v>744</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Oscilar</t>
+          <t>Synthflow AI</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Enterprise AE x5</t>
+          <t>Sales Engineers</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>WILLIAM WOLLISON</t>
+          <t>Omer Maroof</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -812,121 +812,121 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>731</v>
+        <v>744</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Oscilar</t>
+          <t>Synthflow AI</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Enterprise AE x5</t>
+          <t>Sales Engineers</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Daniel Grasso</t>
+          <t>John Jänckel</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2nd Interview</t>
+          <t>1st Interview</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>744</v>
+        <v>750</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Synthflow AI</t>
+          <t>Novee.io</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Sales Engineers</t>
+          <t>Enterprise Account Executive (US)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>John Jänckel</t>
+          <t>Sean Ribisi</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1st Interview</t>
+          <t>CV Sent</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>744</v>
+        <v>760</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Synthflow AI</t>
+          <t>Impala</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Sales Engineers</t>
+          <t>Head of Sales (NA)</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Omer Maroof</t>
+          <t>Patrick Racy</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1st Interview</t>
+          <t>4th Interview</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>744</v>
+        <v>765</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Synthflow AI</t>
+          <t>groundcover</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Sales Engineers</t>
+          <t>SDR</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Steffen Kaiser</t>
+          <t>Rebecca Masters</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>CV Sent</t>
+          <t>1st Interview</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>750</v>
+        <v>805</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Novee.io</t>
+          <t>Dash0</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Enterprise Account Executive (US)</t>
+          <t>Dash0 NYC SDR</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Sean Ribisi</t>
+          <t>Rebecca Masters</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -937,76 +937,76 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>760</v>
+        <v>807</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Impala</t>
+          <t>Oscilar</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Head of Sales (NA)</t>
+          <t>SE Leader</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Patrick Racy</t>
+          <t>Ray Mi</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>3rd Interview</t>
+          <t>4th Interview</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>807</v>
+        <v>820</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Oscilar</t>
+          <t>Silverfort</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>SE Leader</t>
+          <t>Nordics RSM</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>David Hoenig</t>
+          <t>Marc Solis</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>4th Interview</t>
+          <t>3rd Interview</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>807</v>
+        <v>820</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Oscilar</t>
+          <t>Silverfort</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>SE Leader</t>
+          <t>Nordics RSM</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Ray Mi</t>
+          <t>Marko Rämö</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>4th Interview</t>
+          <t>CV Sent</t>
         </is>
       </c>
     </row>
@@ -1026,18 +1026,18 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Marc Solis</t>
+          <t>Peter Inselseth</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>3rd Interview</t>
+          <t>1st Interview</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1046,12 +1046,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Nordics RSM</t>
+          <t>DACH - RSM</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Marko Rämö</t>
+          <t>Jochen Rummel</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1062,7 +1062,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1071,37 +1071,37 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Nordics RSM</t>
+          <t>DACH - RSM</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Peter Inselseth</t>
+          <t>Narinder Shetge</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>1st Interview</t>
+          <t>CV Sent</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>821</v>
+        <v>835</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Silverfort</t>
+          <t>Mintlify</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>DACH - RSM</t>
+          <t>TAM</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Jochen Rummel</t>
+          <t>Abbas Engineer</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1112,26 +1112,26 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>821</v>
+        <v>835</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Silverfort</t>
+          <t>Mintlify</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>DACH - RSM</t>
+          <t>TAM</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Narinder Shetge</t>
+          <t>Patrick Mackle</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>CV Sent</t>
+          <t>1st Interview</t>
         </is>
       </c>
     </row>
@@ -1151,60 +1151,10 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Patrick Mackle</t>
+          <t>Vishaal Bhardwaj</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
-        <is>
-          <t>1st Interview</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>835</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Mintlify</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>TAM</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>Abbas Engineer</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>CV Sent</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>835</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Mintlify</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>TAM</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>Vishaal Bhardwaj</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
         <is>
           <t>1st Interview</t>
         </is>
